--- a/medicine/Enfance/Matthias_Picard/Matthias_Picard.xlsx
+++ b/medicine/Enfance/Matthias_Picard/Matthias_Picard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Matthias Picard, né le  24 juin 1982[1], est un auteur français de bandes dessinées.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Matthias Picard, né le  24 juin 1982, est un auteur français de bandes dessinées.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Diplômé des Arts Décoratifs de Strasbourg en 2007, Matthias Picard a fait ses armes au sein du collectif Troglodyte et du fanzine Ecarquillettes.
 En 2011, il participe à Lapin, la revue de L'Association, en y dessinant l'histoire de Jeanine, une prostituée sexagénaire rencontrée à Strasbourg.
@@ -547,15 +561,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Albums
-La Comète, avec Didier de Calan et Donatien Mary, Phosphène, 2010
+          <t>Albums</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>La Comète, avec Didier de Calan et Donatien Mary, Phosphène, 2010
 Jeanine, L'Association, 2011.
 Jim Curious, voyage au cœur de l'océan, Éditions 2024, 2012.
 La B.O ² -M-, Livre-Disque avec Matthieu Chedid, Éditions 2024, 2015.
-Jim Curious, voyage à travers la jungle, Éditions 2024, 2019.
-Participations
-Lapin no 37 à no 42, L'Association, 2009 à 2010.
-XX/MMX, L'Association, 2010.</t>
+Jim Curious, voyage à travers la jungle, Éditions 2024, 2019.</t>
         </is>
       </c>
     </row>
@@ -580,14 +596,53 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Participations</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Lapin no 37 à no 42, L'Association, 2009 à 2010.
+XX/MMX, L'Association, 2010.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Matthias_Picard</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Matthias_Picard</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Sélection pour les Pépites du Salon du livre et de la presse jeunesse de Montreuil 2012[2] pour Jim Curious, voyage au cœur de l'océan
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Sélection pour les Pépites du Salon du livre et de la presse jeunesse de Montreuil 2012 pour Jim Curious, voyage au cœur de l'océan
 Sélection pour l'Essentiel Jeunesse du festival d'Angoulême 2013 pour Jim Curious, voyage au cœur de l'océan
-Prix Bull'gomme 53 2014[3] pour Jim Curious, voyage au cœur de l'océan</t>
+Prix Bull'gomme 53 2014 pour Jim Curious, voyage au cœur de l'océan</t>
         </is>
       </c>
     </row>
